--- a/report/reliability/by-unidade/Campus CECA.xlsx
+++ b/report/reliability/by-unidade/Campus CECA.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7770008173975899</v>
+        <v>0.7175522209412304</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7888222017678175</v>
+        <v>0.7432538182888626</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.8928747188388448</v>
+        <v>0.8785198321249568</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.23738570533620038</v>
+        <v>0.18212745975787223</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.735346273951276</v>
+        <v>2.8948972613158084</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.022302075267520493</v>
+        <v>0.0268693884361219</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.4385775862068964</v>
+        <v>1.8568098568098568</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.7471881152510439</v>
+        <v>0.5963952925577162</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.1987650781753108</v>
+        <v>0.09893515868250181</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7547719349215574</v>
+        <v>0.7168532237250872</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7649499117856036</v>
+        <v>0.733128855390523</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8692839084090953</v>
+        <v>0.8712327145544082</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22830912114134905</v>
+        <v>0.18628216750479484</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.254412357794432</v>
+        <v>2.7471267321288675</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02464147430572526</v>
+        <v>0.0274520793283901</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.042199167955245524</v>
+        <v>0.06385232112854307</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.1986088070589017</v>
+        <v>0.10237607134954205</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7543053540929637</v>
+        <v>0.6938166852912074</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7655358491532289</v>
+        <v>0.7175595981242733</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.870048524677701</v>
+        <v>0.8617079335021033</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2288842757034207</v>
+        <v>0.17472285887413164</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.2650443421243005</v>
+        <v>2.5405699516034486</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.02469915874786031</v>
+        <v>0.02907736854955079</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.042617110839218784</v>
+        <v>0.06391936919643312</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.1986088070589017</v>
+        <v>0.09679765720867438</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7504444119579919</v>
+        <v>0.6937526386249567</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7596745866470337</v>
+        <v>0.7163337583869938</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8679879299512765</v>
+        <v>0.8618376213128698</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.22322005846185275</v>
+        <v>0.1738535485611892</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.1610247790619552</v>
+        <v>2.525269677187241</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.025074148674184803</v>
+        <v>0.029056193588224512</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.043274212571640366</v>
+        <v>0.06416149354428197</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.1934763240492015</v>
+        <v>0.09679765720867438</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7451121649961641</v>
+        <v>0.7093865682126345</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7563956659668442</v>
+        <v>0.7313383103639121</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8659915132149267</v>
+        <v>0.8598323812026545</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.22013565925913384</v>
+        <v>0.1849018455875899</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.105017277171655</v>
+        <v>2.722153319866843</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.025615967503731275</v>
+        <v>0.02796037841380121</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04322500021567996</v>
+        <v>0.04953809889964052</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.1934763240492015</v>
+        <v>0.10860566555196968</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7779045255207778</v>
+        <v>0.7065452558240515</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.79167075498878</v>
+        <v>0.727712694170115</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8610723630532502</v>
+        <v>0.8601381729319992</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.25676148720825076</v>
+        <v>0.18214855671477279</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.8000941967900026</v>
+        <v>2.672591334921662</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.0219239423479774</v>
+        <v>0.02709353575603725</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.034298588097791356</v>
+        <v>0.050493038416914535</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.21774886176155686</v>
+        <v>0.10860566555196968</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.778603515957266</v>
+        <v>0.7062362493341136</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7897238147878269</v>
+        <v>0.7247537960369501</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8601325485624381</v>
+        <v>0.8577449565310874</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2545228581587071</v>
+        <v>0.17994197995590663</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.755650284367574</v>
+        <v>2.633110958849932</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.021767351139658445</v>
+        <v>0.027007292619356808</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.035139942498532604</v>
+        <v>0.05097873293226276</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21774886176155686</v>
+        <v>0.10817270583520008</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7695605125445156</v>
+        <v>0.7183922569616891</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.7843001409169233</v>
+        <v>0.7488580264095153</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8842313035705925</v>
+        <v>0.8831454631216914</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.24843221127651308</v>
+        <v>0.19902876928760294</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.6360716425635227</v>
+        <v>2.9818115056729333</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.02319169900130059</v>
+        <v>0.027325420436328116</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.044736866999687014</v>
+        <v>0.06468040890215625</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.20245845655802486</v>
+        <v>0.1028213194001749</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7769541463586063</v>
+        <v>0.7051832113785357</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7859669302332428</v>
+        <v>0.7336261425332534</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8850437248577459</v>
+        <v>0.8670884633168356</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.25028158047717924</v>
+        <v>0.18666797838525562</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.67217519745781</v>
+        <v>2.754122155642986</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.02237097899328386</v>
+        <v>0.02792566866741868</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04361087854964727</v>
+        <v>0.06454649060719699</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.20717805823424504</v>
+        <v>0.09679765720867438</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7639969482637053</v>
+        <v>0.7157251825867064</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7768789878587441</v>
+        <v>0.7356518555112899</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.8916819603891006</v>
+        <v>0.8723739292274735</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.240429733340623</v>
+        <v>0.18825075113595066</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.481872820507413</v>
+        <v>2.782890180425339</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.023861699638726776</v>
+        <v>0.02671348453125319</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.04822796025870628</v>
+        <v>0.06509874342071277</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.1986088070589017</v>
+        <v>0.09679765720867438</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7602125730295595</v>
+        <v>0.6945202030841464</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7742697757634066</v>
+        <v>0.7297182490191441</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8882898202489874</v>
+        <v>0.8761078424745462</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23770277307794968</v>
+        <v>0.18366474158366644</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.430066923390264</v>
+        <v>2.6998428357482047</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.024208078602268722</v>
+        <v>0.02932376989821757</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.04731560541737103</v>
+        <v>0.06950592511732534</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19429411058105645</v>
+        <v>0.09752764064448535</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7499367745028204</v>
+        <v>0.6920576580028015</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7644954733242747</v>
+        <v>0.7286525716863036</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8656534004460739</v>
+        <v>0.8736610471335486</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.2278644288049148</v>
+        <v>0.18285700702555152</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.246202882447928</v>
+        <v>2.6853122442123567</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.02515139599683255</v>
+        <v>0.02947102779528055</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.043377788984581854</v>
+        <v>0.06831273106476139</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19429411058105645</v>
+        <v>0.09679765720867438</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7543776673704107</v>
+        <v>0.6727588366481402</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7687587833050074</v>
+        <v>0.7125095862609009</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8689835000310838</v>
+        <v>0.8488319098660573</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.23208427712451055</v>
+        <v>0.17117781063485554</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.324488576441805</v>
+        <v>2.4783768508800152</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.024711442368754076</v>
+        <v>0.03137410788082742</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.043632885232292994</v>
+        <v>0.06503818263628282</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.1986088070589017</v>
+        <v>0.09591026034142125</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.679033540150925</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7167653463882152</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8519993154708849</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.1741589616010715</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.5306414213376898</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.03072065470224734</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06554730054812347</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.09591026034142125</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>232.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.591808345571504</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6244115407204122</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.604705857192111</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.4969077837469457</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.435344827586207</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.1678043415513963</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.594291970441619</v>
+        <v>0.3420088694357326</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6196061545586714</v>
+        <v>0.4524048715115203</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5982180233456166</v>
+        <v>0.4047637528506336</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.48668887232179375</v>
+        <v>0.318470273893631</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.8879310344827585</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.311101791869373</v>
+        <v>0.20395118306679652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.6364793780346819</v>
+        <v>0.5219421878920242</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.666930392154361</v>
+        <v>0.5709580772534038</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6496854684035193</v>
+        <v>0.545269912924615</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.5521185060456254</v>
+        <v>0.4014310952923311</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.456896551724138</v>
+        <v>3.45021645021645</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.1273248522876893</v>
+        <v>1.1481127977789751</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.669855662255107</v>
+        <v>0.5296494884174416</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6927003855151774</v>
+        <v>0.5798737942462366</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6789330182552145</v>
+        <v>0.553108114065486</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.5770523942921414</v>
+        <v>0.3938516921328891</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8232758620689653</v>
+        <v>3.9047619047619047</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3022695978133192</v>
+        <v>1.2885866236083794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.4214225932212411</v>
+        <v>0.44275922806236223</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.3866935164136917</v>
+        <v>0.4665615649149938</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.3971938521765606</v>
+        <v>0.48835771647618564</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.26961910215827994</v>
+        <v>0.40135383424888726</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>0.6724137931034483</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.5019517580286292</v>
+        <v>0.3865321650581047</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.441379837486733</v>
+        <v>0.47983934681542423</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.40539714456053316</v>
+        <v>0.49479951864001737</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.417037447606682</v>
+        <v>0.5179201954917121</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.27904841507328276</v>
+        <v>0.3097140137908733</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>0.728448275862069</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.6195401001028564</v>
+        <v>1.5045573531475032</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.4543576511708163</v>
+        <v>0.5027963699699982</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.45628417940960764</v>
+        <v>0.5174303486349168</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3930000175653759</v>
+        <v>0.5433939475739857</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.33196973989583445</v>
+        <v>0.3215579301429633</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.581896551724138</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2629313210620994</v>
+        <v>1.6223430551269753</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.4489608147517685</v>
+        <v>0.23861815515278398</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.44083279685807136</v>
+        <v>0.32167469101798285</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3764757535812437</v>
+        <v>0.23380703302749975</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.2900874701161059</v>
+        <v>0.2082494029047606</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.6724137931034484</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.596944387828701</v>
+        <v>0.24694634187431178</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.5386294339550274</v>
+        <v>0.4489500023425387</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5231444623120857</v>
+        <v>0.44844796386676805</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.4398304530716557</v>
+        <v>0.39976077203933624</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.39700045782557736</v>
+        <v>0.30598855517545054</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.4525862068965518</v>
+        <v>2.593073593073593</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5618260600613785</v>
+        <v>1.2541217570543275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5484435764336957</v>
+        <v>0.44531254147126337</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5459280720998054</v>
+        <v>0.43221491831436887</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.47311539056726765</v>
+        <v>0.37099965588866696</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4267847888928405</v>
+        <v>0.25905734899654353</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.331896551724138</v>
+        <v>2.683982683982684</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3792587969916912</v>
+        <v>1.5906393791433244</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.6300707918777475</v>
+        <v>0.5536195626059454</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6281269218382047</v>
+        <v>0.47924940379769276</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.616123304326844</v>
+        <v>0.39814513518585254</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5220429629080454</v>
+        <v>0.38944494506509897</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.228448275862069</v>
+        <v>1.4588744588744589</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.387782561812719</v>
+        <v>1.5622716283324871</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
+        <v>28</v>
+      </c>
+      <c r="B38" t="n" s="84">
+        <v>231.0</v>
+      </c>
+      <c r="C38" t="n" s="85">
+        <v>0.5472639557831901</v>
+      </c>
+      <c r="D38" t="n" s="86">
+        <v>0.4875335948607303</v>
+      </c>
+      <c r="E38" t="n" s="87">
+        <v>0.41636640602487873</v>
+      </c>
+      <c r="F38" t="n" s="88">
+        <v>0.4037275843589575</v>
+      </c>
+      <c r="G38" t="n" s="89">
+        <v>2.3376623376623376</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3794490671883053</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
         <v>29</v>
       </c>
-      <c r="B38" t="n" s="84">
-        <v>232.0</v>
-      </c>
-      <c r="C38" t="n" s="85">
-        <v>0.5941880622105098</v>
-      </c>
-      <c r="D38" t="n" s="86">
-        <v>0.5928703107342423</v>
-      </c>
-      <c r="E38" t="n" s="87">
-        <v>0.5760229120877057</v>
-      </c>
-      <c r="F38" t="n" s="88">
-        <v>0.48400876010446836</v>
-      </c>
-      <c r="G38" t="n" s="89">
-        <v>1.9913793103448276</v>
-      </c>
-      <c r="H38" t="n" s="90">
-        <v>1.3387057758156269</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
+      <c r="B39" t="n" s="84">
+        <v>231.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6557369119127854</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.607316379181682</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5975298694079314</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5338507526106872</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.2337662337662336</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3884251688382705</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>231.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6210981170496267</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5767414533675297</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5622572829008138</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.49648620194816817</v>
+      </c>
+      <c r="G40" t="n" s="89">
+        <v>1.9956709956709957</v>
+      </c>
+      <c r="H40" t="n" s="90">
+        <v>1.3400124447762012</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04741379310344827</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.2974137931034483</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4870689655172414</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04741379310344827</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.034482758620689655</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2629310344827586</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.1939655172413793</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.03017241379310345</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.06465517241379311</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.01293103448275862</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.3232758620689655</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4482758620689655</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.1206896551724138</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.03017241379310345</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02586206896551724</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.04310344827586207</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3620689655172414</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.06896551724137931</v>
+        <v>0.48917748917748916</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.4698275862068966</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.8189655172413793</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.01293103448275862</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.008620689655172414</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.03017241379310345</v>
+        <v>0.26406926406926406</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.09482758620689655</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.034482758620689655</v>
+        <v>0.45021645021645024</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
-        <v>0.8189655172413793</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.008620689655172414</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05172413793103448</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.03879310344827586</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.08189655172413793</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.06896551724137931</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.1896551724137931</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.08189655172413793</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4353448275862069</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.19827586206896552</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02586206896551724</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.06896551724137931</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.23275862068965517</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.20689655172413793</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.10775862068965517</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.21551724137931033</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.16810344827586207</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4482758620689655</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.15086206896551724</v>
+        <v>0.935064935064935</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.04310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.21551724137931033</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.14224137931034483</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.17672413793103448</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.125</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.06896551724137931</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4482758620689655</v>
+        <v>0.43722943722943725</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.1810344827586207</v>
+        <v>0.19913419913419914</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.025974025974025976</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.1939655172413793</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.06896551724137931</v>
+        <v>0.23376623376623376</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.27155172413793105</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.24568965517241378</v>
+        <v>0.10822510822510822</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.21982758620689655</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.16883116883116883</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.21982758620689655</v>
+        <v>0.4458874458874459</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.08620689655172414</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3275862068965517</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.21551724137931033</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.15086206896551724</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.1774891774891775</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.06926406926406926</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.45021645021645024</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.24675324675324675</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.22077922077922077</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.08225108225108226</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.329004329004329</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.21645021645021645</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8480502218310491</v>
+        <v>0.8716238391883149</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8499451685011651</v>
+        <v>0.9854527316475039</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.870077035716178</v>
+        <v>0.9784125722517942</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.5861025916210044</v>
+        <v>0.957592035035748</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>5.664230601650202</v>
+        <v>67.74142799657712</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.01681888748145177</v>
+        <v>0.0024410062666480716</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.6508620689655173</v>
+        <v>0.5295815295815296</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>1.0192303088365808</v>
+        <v>1.1567760329055505</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5606938095927412</v>
+        <v>0.9586947730347858</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8027041886415933</v>
+        <v>0.9780971426101919</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8062919793626357</v>
+        <v>0.9795154231756174</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.7667611518728333</v>
+        <v>0.9598532358262031</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.5811465021132606</v>
+        <v>0.9598532358262031</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.162408849719618</v>
+        <v>47.81721543838306</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.022795697734951315</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.023466970560709358</v>
-      </c>
+        <v>0.0027832909230174406</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5562852812044181</v>
+        <v>0.9598532358262031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8108058346993563</v>
+        <v>0.6036341645484695</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8133442347546519</v>
+        <v>0.9789118613405925</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7708414101980388</v>
+        <v>0.9586947730347857</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.5922503501183282</v>
+        <v>0.9586947730347859</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.35745573508302</v>
+        <v>46.42002203944634</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.02184519875041589</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.019991117920180535</v>
-      </c>
+        <v>0.007418591507134501</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5651023379810644</v>
+        <v>0.9586947730347858</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8086454636421881</v>
+        <v>0.6300807795871264</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8107375722984205</v>
+        <v>0.9765780136711446</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7666916933597865</v>
+        <v>0.9542280962462552</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.5881196622031996</v>
+        <v>0.954228096246255</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.283668883169748</v>
+        <v>41.69492714919825</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.022105553713985916</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.019703190162777558</v>
-      </c>
+        <v>0.007902756582131909</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5562852812044181</v>
+        <v>0.9542280962462549</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8066753436625244</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8074113417665758</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7678159947243729</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5828938520492294</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.192413765030571</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.022151954029278765</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.022701792134911282</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5651023379810644</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>231.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9732667271760004</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9849980410167765</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9731764034599566</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9662790683573618</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.3865321650581047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8301966840334741</v>
+        <v>0.9885544935942213</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8348838927077233</v>
+        <v>0.98538977249452</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7798411518443659</v>
+        <v>0.9741940785202101</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6982450484040666</v>
+        <v>0.9649845616057828</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.435344827586207</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.1678043415513963</v>
+        <v>1.5045573531475032</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8339223962985842</v>
+        <v>0.9904146142705597</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8248552212117886</v>
+        <v>0.9869001687816843</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7669060516203989</v>
+        <v>0.9778232267779937</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6803581377782926</v>
+        <v>0.9668399752079194</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.8879310344827585</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.311101791869373</v>
+        <v>1.6223430551269753</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>232.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8185470111061188</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8285859379988111</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7736587784390108</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6862935414136742</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.456896551724138</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.1273248522876893</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>232.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8379896211737302</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8333057372351093</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7779421278771107</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.68886326544204</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8232758620689653</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3022695978133192</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.008658008658008658</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.030303030303030304</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.09523809523809523</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.03463203463203463</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04741379310344827</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.05172413793103448</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.01293103448275862</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.2974137931034483</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4870689655172414</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.10344827586206896</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04741379310344827</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.034482758620689655</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2629310344827586</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.1939655172413793</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.03017241379310345</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.06465517241379311</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.3232758620689655</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4482758620689655</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.1206896551724138</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.03017241379310345</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02586206896551724</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.04310344827586207</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3620689655172414</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.4698275862068966</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.7660437201267556</v>
+        <v>0.6532751916226947</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.7789789486113023</v>
+        <v>0.7798573342970017</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.6379733975309847</v>
+        <v>0.7146383466063233</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.6379733975309847</v>
+        <v>0.5414603046298542</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>3.5244559000914126</v>
+        <v>3.542508817210073</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.02936283687144223</v>
+        <v>0.02221690888002095</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.627155172413793</v>
+        <v>2.0707070707070705</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.2960127371204055</v>
+        <v>0.9053267114136548</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.6379733975309847</v>
+        <v>0.5460544694393986</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.6379733975309846</v>
+        <v>0.7617933236014154</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.6379733975309846</v>
+        <v>0.7750368724484435</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.40701005595722783</v>
+        <v>0.6327022054921599</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.6379733975309846</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.6379733975309846</v>
-      </c>
+        <v>0.6327022054921598</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>3.4451729084839604</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.02994135418416571</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.6379733975309846</v>
+        <v>0.6327022054921597</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.40701005595722783</v>
+        <v>0.23805562310419393</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.6379733975309846</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.40701005595722783</v>
-      </c>
+        <v>0.6165146197039517</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.4456242389580042</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.4456242389580043</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>1.6076613382966678</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.027465980699034387</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.6379733975309846</v>
+        <v>0.44562423895800435</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.34302403267986326</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.7063845165007656</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.5460544694393985</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.5460544694393987</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>2.4058149389203027</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.028065423582662955</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.5460544694393986</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>232.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8802920266443456</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9049788388495569</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.7228358919866295</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.6379733975309848</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.581896551724138</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.2629313210620994</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
+        <v>24</v>
+      </c>
+      <c r="B18" t="n" s="314">
+        <v>231.0</v>
+      </c>
+      <c r="C18" t="n" s="315">
+        <v>0.6040517655630393</v>
+      </c>
+      <c r="D18" t="n" s="316">
+        <v>0.7967504084058795</v>
+      </c>
+      <c r="E18" t="n" s="317">
+        <v>0.6182925203724727</v>
+      </c>
+      <c r="F18" t="n" s="318">
+        <v>0.5413594805343379</v>
+      </c>
+      <c r="G18" t="n" s="319">
+        <v>0.935064935064935</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.24694634187431178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>232.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.9269434260782907</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.9049788388495569</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.7228358919866293</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.6379733975309847</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.6724137931034484</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.596944387828701</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="B19" t="n" s="314">
+        <v>231.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.881953783046576</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.8715890084327714</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.7884283469302577</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.6654529951011489</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.593073593073593</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.2541217570543275</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>231.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9183315536825711</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.8314129364513956</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.7064769040714448</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.6434075376913642</v>
+      </c>
+      <c r="G20" t="n" s="319">
+        <v>2.683982683982684</v>
+      </c>
+      <c r="H20" t="n" s="320">
+        <v>1.5906393791433244</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="C23" t="n" s="340">
-        <v>0.1896551724137931</v>
-      </c>
-      <c r="D23" t="n" s="341">
-        <v>0.08189655172413793</v>
-      </c>
-      <c r="E23" t="n" s="342">
-        <v>0.4353448275862069</v>
-      </c>
-      <c r="F23" t="n" s="343">
-        <v>0.19827586206896552</v>
-      </c>
-      <c r="G23" t="n" s="344">
-        <v>0.02586206896551724</v>
-      </c>
-      <c r="H23" t="n" s="345">
+      <c r="B25" t="n" s="339">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="C25" t="n" s="340">
+        <v>0.935064935064935</v>
+      </c>
+      <c r="D25" t="n" s="341">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
         <v>25</v>
       </c>
-      <c r="B24" t="n" s="339">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="C24" t="n" s="340">
-        <v>0.23275862068965517</v>
-      </c>
-      <c r="D24" t="n" s="341">
-        <v>0.20689655172413793</v>
-      </c>
-      <c r="E24" t="n" s="342">
-        <v>0.10775862068965517</v>
-      </c>
-      <c r="F24" t="n" s="343">
-        <v>0.21551724137931033</v>
-      </c>
-      <c r="G24" t="n" s="344">
-        <v>0.16810344827586207</v>
-      </c>
-      <c r="H24" t="n" s="345">
+      <c r="B26" t="n" s="339">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="C26" t="n" s="340">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="D26" t="n" s="341">
+        <v>0.08225108225108226</v>
+      </c>
+      <c r="E26" t="n" s="342">
+        <v>0.43722943722943725</v>
+      </c>
+      <c r="F26" t="n" s="343">
+        <v>0.19913419913419914</v>
+      </c>
+      <c r="G26" t="n" s="344">
+        <v>0.025974025974025976</v>
+      </c>
+      <c r="H26" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
+        <v>0.06493506493506493</v>
+      </c>
+      <c r="C27" t="n" s="340">
+        <v>0.23376623376623376</v>
+      </c>
+      <c r="D27" t="n" s="341">
+        <v>0.2077922077922078</v>
+      </c>
+      <c r="E27" t="n" s="342">
+        <v>0.10822510822510822</v>
+      </c>
+      <c r="F27" t="n" s="343">
+        <v>0.21645021645021645</v>
+      </c>
+      <c r="G27" t="n" s="344">
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.901546035132401</v>
+        <v>0.7221511255889711</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9018669047231374</v>
+        <v>0.8604521046493223</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8212728571810847</v>
+        <v>0.808147871048293</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8212728571810848</v>
+        <v>0.6727034135399023</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>9.190242111274516</v>
+        <v>6.165998437217873</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.012901963672115858</v>
+        <v>0.014860543810670247</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.1099137931034484</v>
+        <v>2.7705627705627704</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.30092740525685</v>
+        <v>0.8044437095983102</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8212728571810847</v>
+        <v>0.6459916047489144</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8212728571810847</v>
+        <v>0.8416822812975759</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8212728571810847</v>
+        <v>0.844924119630559</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.6744891059423823</v>
+        <v>0.7314879775347032</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8212728571810847</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8212728571810847</v>
-      </c>
+        <v>0.7314879775347032</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>5.448456056594208</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020539571159548985</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8212728571810847</v>
+        <v>0.7314879775347032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.6744891059423823</v>
+        <v>0.3326265326818476</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8212728571810847</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6744891059423823</v>
-      </c>
+        <v>0.7849269739713605</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6459916047489145</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.6459916047489145</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>3.64958353199921</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.021126574311258008</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8212728571810847</v>
+        <v>0.6459916047489144</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.36151682844960553</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.7809565852997169</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.6406306583360892</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.6406306583360895</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>3.5653050166712337</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.02278061585852755</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.6406306583360893</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>232.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9559431483998031</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9542727223338947</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8648011225488398</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8212728571810846</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.228448275862069</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.387782561812719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9525719557780811</v>
+        <v>0.7342065745779208</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9542727223338947</v>
+        <v>0.8620346198652723</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.8648011225488398</v>
+        <v>0.7400422129069727</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8212728571810844</v>
+        <v>0.6913830785730509</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>1.9913793103448276</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3387057758156269</v>
+        <v>0.20395118306679652</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>231.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.92045213983804</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8942659308273301</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8201322030241267</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.7511266205418681</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.45021645021645</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.1481127977789751</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>231.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9365345920042808</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8962869561089009</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8244233703087578</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7541439126678634</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9047619047619047</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2885866236083794</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.1939655172413793</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.06896551724137931</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.27155172413793105</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.24568965517241378</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.21982758620689655</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9567099567099567</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.21982758620689655</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.08620689655172414</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3275862068965517</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21551724137931033</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.15086206896551724</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.05194805194805195</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.48917748917748916</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.1038961038961039</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.012987012987012988</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.03463203463203463</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.26406926406926406</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.19480519480519481</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.45021645021645024</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9781152841261063</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9795337195139731</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>47.860856797244615</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.002774895131210702</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>0.7004310344827587</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.5450380806141455</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9598883748000391</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6476289819741685</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6510164118374835</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4825977258361229</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4825977258361229</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.865464262274462</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.045905099875221</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.8982683982683983</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2672450560159976</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4825977258361228</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9213856920762602</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9598883748000391</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.4825977258361228</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.4825977258361228</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2329005649821978</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.4825977258361228</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.4825977258361228</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.4825977258361228</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9213856920762602</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9213856920762602</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9598883748000391</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2329005649821978</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.4825977258361228</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2329005649821978</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.4825977258361228</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
-        <v>232.0</v>
-      </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9891437340576409</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9899213036398496</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.969864440753526</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9598883748000391</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>0.6724137931034483</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.5019517580286292</v>
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
+        <v>231.0</v>
+      </c>
+      <c r="C17" t="n" s="545">
+        <v>0.879068574971895</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8609871444557471</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.5981213467258634</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.48259772583612276</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.4588744588744589</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5622716283324871</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
-        <v>232.0</v>
-      </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9906701234600598</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9899213036398496</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.969864440753526</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9598883748000389</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>0.728448275862069</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.6195401001028564</v>
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
+        <v>231.0</v>
+      </c>
+      <c r="C18" t="n" s="545">
+        <v>0.8417463504915533</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8609871444557471</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.5981213467258631</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.48259772583612287</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.3376623376623376</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.3794490671883053</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.8189655172413793</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01293103448275862</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.03017241379310345</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.09482758620689655</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.034482758620689655</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4458874458874459</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.04329004329004329</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.21645021645021645</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.8189655172413793</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.008620689655172414</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.0</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.03879310344827586</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.08189655172413793</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.1774891774891775</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.12121212121212122</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.06926406926406926</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.45021645021645024</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6494665846325296</v>
+        <v>0.9012696755273653</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6528509702822165</v>
+        <v>0.9015814570357779</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4846167394107712</v>
+        <v>0.8207995602502718</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4846167394107712</v>
+        <v>0.8207995602502718</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.8806072159065363</v>
+        <v>9.160686897829073</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.04556710637567084</v>
+        <v>0.012966941198134555</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.8922413793103448</v>
+        <v>2.1147186147186146</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2678270507688707</v>
+        <v>1.3016877951837171</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4846167394107711</v>
+        <v>0.8207995602502718</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.23485338411712753</v>
+        <v>0.6737119181070395</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.23485338411712753</v>
+        <v>0.6737119181070395</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.23485338411712753</v>
+        <v>0.6737119181070395</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8795513393213183</v>
+        <v>0.9558001555546868</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8615731946302563</v>
+        <v>0.9541487201296954</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.5997791775011446</v>
+        <v>0.8644395520674975</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.4846167394107712</v>
+        <v>0.8207995602502717</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.4525862068965518</v>
+        <v>2.2337662337662336</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5618260600613785</v>
+        <v>1.3884251688382705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8424437104611181</v>
+        <v>0.9524677199762381</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8615731946302563</v>
+        <v>0.9541487201296955</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.5997791775011442</v>
+        <v>0.8644395520674977</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.48461673941077116</v>
+        <v>0.8207995602502719</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.331896551724138</v>
+        <v>1.9956709956709957</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.3792587969916912</v>
+        <v>1.3400124447762012</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4482758620689655</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.15086206896551724</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.04310344827586207</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.21551724137931033</v>
+        <v>0.24675324675324675</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.14224137931034483</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.17672413793103448</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.125</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.06896551724137931</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4482758620689655</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.1810344827586207</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.7812791105167947</v>
+        <v>0.7285930162708518</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.7918221875210185</v>
+        <v>0.7658961437555839</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.8976201514988709</v>
+        <v>0.8940913818812123</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.2755505642621075</v>
+        <v>0.24651182473428657</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>3.8035858773420634</v>
+        <v>3.271608405100127</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.022371481730560184</v>
+        <v>0.026474757502366962</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.4008620689655173</v>
+        <v>1.7926406926406926</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.7997830538800025</v>
+        <v>0.6845420213782071</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.22380566458053158</v>
+        <v>0.1032542791169445</v>
       </c>
     </row>
     <row r="7">
@@ -7421,292 +7592,292 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7563727583595458</v>
+        <v>0.7177135462009466</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.7644961955384659</v>
+        <v>0.7460010883317769</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.870413415756854</v>
+        <v>0.8702175939044349</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.2650791011347143</v>
+        <v>0.24604328184220117</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>3.2462159041822813</v>
+        <v>2.9370247432643093</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.025056653326881582</v>
+        <v>0.028168450043468414</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.048066189275027475</v>
+        <v>0.058317891386512354</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.22078192617224965</v>
+        <v>0.1663486480207903</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7569861039633078</v>
+        <v>0.7073181945982662</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.7660826164174097</v>
+        <v>0.7424793505657175</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8717410167155157</v>
+        <v>0.8714013209615918</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.2668032573299445</v>
+        <v>0.24262721230337</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>3.2750136167067954</v>
+        <v>2.8831837454463725</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.025002631036749715</v>
+        <v>0.027521536437502953</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.04842770500114889</v>
+        <v>0.05969323678301514</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.22078192617224965</v>
+        <v>0.1663486480207903</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7534914185271335</v>
+        <v>0.7053591766177925</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.7609734381005971</v>
+        <v>0.7386241650846949</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8693787067391737</v>
+        <v>0.8686829499531504</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.2613042280932815</v>
+        <v>0.23895909705591573</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>3.183635458978244</v>
+        <v>2.825908390972849</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.025379947395612508</v>
+        <v>0.027596059513070398</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0494951669957183</v>
+        <v>0.06088617316411494</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.20481825739613496</v>
+        <v>0.1663486480207903</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7500499006123659</v>
+        <v>0.7299399045373512</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.7592675533252004</v>
+        <v>0.7534389157369209</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8686398571135968</v>
+        <v>0.8871123817044592</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.2595023904183166</v>
+        <v>0.25347074399328723</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>3.1539892682222366</v>
+        <v>3.055790081345549</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.02572835960150216</v>
+        <v>0.027283502322104348</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.04958478039646603</v>
+        <v>0.08174500584960652</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2124681229991064</v>
+        <v>0.14552272596186921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7544428926865132</v>
+        <v>0.7040354464537858</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.7677030169750901</v>
+        <v>0.7397817649875421</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8663906127008022</v>
+        <v>0.8771527669594208</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.2685801495144335</v>
+        <v>0.2400528121947607</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>3.304834212559564</v>
+        <v>2.84292822504205</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.025253859913609737</v>
+        <v>0.028736748424271548</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.049070065946109076</v>
+        <v>0.08121552735073999</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.20481825739613496</v>
+        <v>0.09886862156134799</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7600803187265579</v>
+        <v>0.7061855495398834</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.7734268805427067</v>
+        <v>0.7400976797220005</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8708228558158049</v>
+        <v>0.8781852337556404</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.2749879177824407</v>
+        <v>0.2403524351280402</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>3.4135862294489443</v>
+        <v>2.847599355520831</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02472130506616</v>
+        <v>0.028470367942554163</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04893477696396367</v>
+        <v>0.08122697474006796</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.22851522783719996</v>
+        <v>0.09886862156134799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7787939433083447</v>
+        <v>0.7106265722028461</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.7929231815272376</v>
+        <v>0.7586277256340745</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8559159764962964</v>
+        <v>0.8963025949745312</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.29847129392151284</v>
+        <v>0.2588309005324636</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>3.829125767795849</v>
+        <v>3.1429779067498815</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02225721034435819</v>
+        <v>0.02846038301023352</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.03751065476902651</v>
+        <v>0.0885543665694623</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.23716499237487085</v>
+        <v>0.10176520935815447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7788090191437336</v>
+        <v>0.706795051206958</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.7899877418807536</v>
+        <v>0.7566988131202763</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8548165710889599</v>
+        <v>0.8949277326987553</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.29476075976881133</v>
+        <v>0.25682065388218245</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>3.761626816241332</v>
+        <v>3.1101320253499267</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02214131852081837</v>
+        <v>0.028701645994809535</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03931399609239648</v>
+        <v>0.08708294016953752</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.23716499237487085</v>
+        <v>0.09886862156134799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.7713693306372866</v>
+        <v>0.6844701376140601</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.7819180631348196</v>
+        <v>0.7407039564185064</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.8995676687899801</v>
+        <v>0.8620885481871515</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.2848875075876141</v>
+        <v>0.24092882583288716</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>3.585432495577136</v>
+        <v>2.856595674147693</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.023744728083616388</v>
+        <v>0.030824478932132165</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.05546451112988983</v>
+        <v>0.08238435079179066</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2303982078894995</v>
+        <v>0.09679765720867436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7663098377329622</v>
+        <v>0.6926909230516207</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.7787430541422724</v>
+        <v>0.7470086110010481</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.8965061814883701</v>
+        <v>0.8667283475857049</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.2811290370700056</v>
+        <v>0.24703228457775772</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>3.519632123291707</v>
+        <v>2.952703702512747</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.024204902148944673</v>
+        <v>0.03003698927345073</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.05444546379893114</v>
+        <v>0.08237151859329109</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.20481825739613496</v>
+        <v>0.10176520935815447</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6178997417461418</v>
+        <v>0.5407571831296786</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6538147059074627</v>
+        <v>0.570300789714923</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6275315920378861</v>
+        <v>0.5922879639746886</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5146003644335706</v>
+        <v>0.4989461429694625</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.435344827586207</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.1678043415513963</v>
+        <v>0.3865321650581047</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.6148079548579074</v>
+        <v>0.5713672096315365</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6432928514817268</v>
+        <v>0.5919775945129584</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6147077944718193</v>
+        <v>0.6145975678476738</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.49630761851656324</v>
+        <v>0.39377795034486324</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.8879310344827585</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.311101791869373</v>
+        <v>1.5045573531475032</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6424670142817805</v>
+        <v>0.5987713534667025</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6768512873537791</v>
+        <v>0.6152537653554788</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.651854127598248</v>
+        <v>0.6406957721622861</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5476028136348673</v>
+        <v>0.4116516384582067</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.456896551724138</v>
+        <v>0.7316017316017316</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>1.1273248522876893</v>
+        <v>1.6223430551269753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6614264680335872</v>
+        <v>0.38698256017285726</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6878472016260686</v>
+        <v>0.5231695339358097</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6639584059754918</v>
+        <v>0.46390290280273494</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5536173438664379</v>
+        <v>0.36121557279268085</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.8232758620689653</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3022695978133192</v>
+        <v>0.20395118306679652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.63478535005295</v>
+        <v>0.546376710587316</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6324491698320341</v>
+        <v>0.6083135525466054</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6133289524148454</v>
+        <v>0.5712790057241005</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5125762391179092</v>
+        <v>0.4119600777533916</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.228448275862069</v>
+        <v>3.45021645021645</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.387782561812719</v>
+        <v>1.1481127977789751</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5951734942544435</v>
+        <v>0.5468133855730887</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5933450532233749</v>
+        <v>0.6064122833353419</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5687385540465608</v>
+        <v>0.5669366031755534</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.46990794768809613</v>
+        <v>0.3936867770030638</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>1.9913793103448276</v>
+        <v>3.9047619047619047</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3387057758156269</v>
+        <v>1.2885866236083794</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.4932349944309665</v>
+        <v>0.5670583025293838</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.45003514554582025</v>
+        <v>0.48915644794154883</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.46158220715473164</v>
+        <v>0.38884472347657995</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.33129378873290516</v>
+        <v>0.3804382410813056</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>0.6724137931034483</v>
+        <v>1.4588744588744589</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.5019517580286292</v>
+        <v>1.5622716283324871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.5175441630535156</v>
+        <v>0.5551625264205665</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.4726790917871497</v>
+        <v>0.5019125478214589</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.48546835324192544</v>
+        <v>0.4089747336109218</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.3455169252478414</v>
+        <v>0.39128877138693924</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>0.728448275862069</v>
+        <v>2.3376623376623376</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.6195401001028564</v>
+        <v>1.3794490671883053</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5507226916189856</v>
+        <v>0.6582676734759638</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5329317083694133</v>
+        <v>0.602754773248283</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4346947680697205</v>
+        <v>0.5806803398097796</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3917931151426378</v>
+        <v>0.5176445164494304</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.4525862068965518</v>
+        <v>2.2337662337662336</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5618260600613785</v>
+        <v>1.3884251688382705</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
-        <v>232.0</v>
+        <v>231.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5566077502740473</v>
+        <v>0.6185135795782857</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5558681915947152</v>
+        <v>0.5640250336157899</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4671224561441525</v>
+        <v>0.5362465509276704</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4197055016705789</v>
+        <v>0.4737968488702815</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.331896551724138</v>
+        <v>1.9956709956709957</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.3792587969916912</v>
+        <v>1.3400124447762012</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04741379310344827</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.05172413793103448</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.01293103448275862</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.2974137931034483</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.4870689655172414</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.10344827586206896</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04741379310344827</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.01293103448275862</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.034482758620689655</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2629310344827586</v>
+        <v>0.030303030303030304</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.1939655172413793</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.4482758620689655</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.03017241379310345</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.06465517241379311</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.01293103448275862</v>
+        <v>0.0</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.3232758620689655</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4482758620689655</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.1206896551724138</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.03017241379310345</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.02586206896551724</v>
+        <v>0.9567099567099567</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.04310344827586207</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3620689655172414</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.06896551724137931</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.4698275862068966</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.1939655172413793</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.06896551724137931</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.27155172413793105</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.24568965517241378</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.21982758620689655</v>
+        <v>0.48917748917748916</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.21982758620689655</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.08620689655172414</v>
+        <v>0.012987012987012988</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3275862068965517</v>
+        <v>0.03463203463203463</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.21551724137931033</v>
+        <v>0.26406926406926406</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.15086206896551724</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.45021645021645024</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.8189655172413793</v>
+        <v>0.4458874458874459</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.01293103448275862</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.008620689655172414</v>
+        <v>0.04329004329004329</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.03017241379310345</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.09482758620689655</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.034482758620689655</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.8189655172413793</v>
+        <v>0.1774891774891775</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.008620689655172414</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="D46" t="n" s="799">
+        <v>0.06926406926406926</v>
+      </c>
+      <c r="E46" t="n" s="800">
+        <v>0.45021645021645024</v>
+      </c>
+      <c r="F46" t="n" s="801">
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="G46" t="n" s="802">
         <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="800">
-        <v>0.05172413793103448</v>
-      </c>
-      <c r="F46" t="n" s="801">
-        <v>0.03879310344827586</v>
-      </c>
-      <c r="G46" t="n" s="802">
-        <v>0.08189655172413793</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4482758620689655</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.15086206896551724</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.04310344827586207</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.21551724137931033</v>
+        <v>0.24675324675324675</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.14224137931034483</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.17672413793103448</v>
+        <v>0.22077922077922077</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.125</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.06896551724137931</v>
+        <v>0.329004329004329</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4482758620689655</v>
+        <v>0.21645021645021645</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.1810344827586207</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
